--- a/xlsx/美国国务院_intext.xlsx
+++ b/xlsx/美国国务院_intext.xlsx
@@ -20,2140 +20,2140 @@
     <t>美国国务院</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E9%99%A2</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7S%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8%E5%A4%A7%E6%A5%BC</t>
+  </si>
+  <si>
+    <t>哈里·S·杜鲁门大楼</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国国务院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
+  </si>
+  <si>
+    <t>美国国务卿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%C2%B7%E8%92%82%E5%8B%92%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>雷克斯·蒂勒森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B8%B8%E5%8A%A1%E5%89%AF%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
+  </si>
+  <si>
+    <t>美国常务副国务卿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国联邦政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4</t>
+  </si>
+  <si>
+    <t>外交</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
+  </si>
+  <si>
+    <t>美国联邦行政部门</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国外交部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E9%83%A8</t>
+  </si>
+  <si>
+    <t>外交部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%C2%B7%E6%8F%90%E5%8B%92%E6%A3%AE</t>
+  </si>
+  <si>
+    <t>雷克斯·提勒森</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BE%E8%B0%B7</t>
+  </si>
+  <si>
+    <t>雾谷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
+  </si>
+  <si>
+    <t>美国内阁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国副总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E7%BB%A7%E4%BB%BB%E9%A1%BA%E5%BA%8F</t>
+  </si>
+  <si>
+    <t>美国总统继任顺序</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2%E8%AE%AE%E9%95%BF</t>
+  </si>
+  <si>
+    <t>美国众议院议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
+  </si>
+  <si>
+    <t>参议院临时议长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%93%B8%E5%B8%81%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国铸币局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%87%B1%E7%91%9E</t>
+  </si>
+  <si>
+    <t>约翰·凯瑞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8B%89%E9%87%8C%C2%B7%E6%9F%AF%E6%9E%97%E9%A0%93</t>
+  </si>
+  <si>
+    <t>希拉里·柯林顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A4%9A%E8%8E%89%E6%89%8E%C2%B7%E8%B5%96%E6%96%AF</t>
+  </si>
+  <si>
+    <t>康多莉扎·赖斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%9F%BA%E8%BE%9B%E6%A0%BC</t>
+  </si>
+  <si>
+    <t>亨利·基辛格</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
+  </si>
+  <si>
+    <t>美国副国务卿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E6%AC%A1%E5%8D%BF</t>
+  </si>
+  <si>
+    <t>美国国务次卿</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Executive_Secretariat</t>
+  </si>
+  <si>
+    <t>en-Executive Secretariat</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Office_of_the_Coordinator_for_Reconstruction_and_Stabilization</t>
+  </si>
+  <si>
+    <t>en-Office of the Coordinator for Reconstruction and Stabilization</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Foreign_Affairs_Training_Center</t>
+  </si>
+  <si>
+    <t>en-National Foreign Affairs Training Center</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B3%87%E8%A8%8A%E8%A8%88%E5%8A%83%E5%B1%80</t>
+  </si>
+  <si>
+    <t>国际资讯计划局</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Legal_Adviser_of_the_Department_of_State</t>
+  </si>
+  <si>
+    <t>en-Legal Adviser of the Department of State</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chief_of_Protocol_of_the_United_States</t>
+  </si>
+  <si>
+    <t>en-Chief of Protocol of the United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Intelligence_and_Research</t>
+  </si>
+  <si>
+    <t>en-Bureau of Intelligence and Research</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Legislative_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of Legislative Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Resource_Management</t>
+  </si>
+  <si>
+    <t>en-Bureau of Resource Management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Under_Secretary_of_State_for_Political_Affairs</t>
+  </si>
+  <si>
+    <t>en-Under Secretary of State for Political Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_East_Asian_and_Pacific_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of East Asian and Pacific Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_African_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of African Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Near_Eastern_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of Near Eastern Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_South_and_Central_Asian_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of South and Central Asian Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_European_and_Eurasian_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of European and Eurasian Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Western_Hemisphere_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of Western Hemisphere Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Under_Secretary_of_State_for_Management</t>
+  </si>
+  <si>
+    <t>en-Under Secretary of State for Management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Administration</t>
+  </si>
+  <si>
+    <t>en-Bureau of Administration</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Consular_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of Consular Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Office_of_Children%27s_Issues</t>
+  </si>
+  <si>
+    <t>en-Office of Children's Issues</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Diplomatic_Security</t>
+  </si>
+  <si>
+    <t>en-Bureau of Diplomatic Security</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Diplomatic_Security_Service</t>
+  </si>
+  <si>
+    <t>en-Diplomatic Security Service</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Office_of_Foreign_Missions</t>
+  </si>
+  <si>
+    <t>en-Office of Foreign Missions</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Information_Resource_Management</t>
+  </si>
+  <si>
+    <t>en-Bureau of Information Resource Management</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Overseas_Buildings_Operations</t>
+  </si>
+  <si>
+    <t>en-Bureau of Overseas Buildings Operations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Foreign_Service_Institute</t>
+  </si>
+  <si>
+    <t>en-Foreign Service Institute</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Under_Secretary_of_State_for_Economic_Growth,_Energy,_and_the_Environment</t>
+  </si>
+  <si>
+    <t>en-Under Secretary of State for Economic Growth, Energy, and the Environment</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Under_Secretary_of_State_for_Public_Diplomacy_and_Public_Affairs</t>
+  </si>
+  <si>
+    <t>en-Under Secretary of State for Public Diplomacy and Public Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Educational_and_Cultural_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of Educational and Cultural Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Internet_Access_and_Training_Program</t>
+  </si>
+  <si>
+    <t>en-Internet Access and Training Program</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Public_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of Public Affairs</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E6%96%87%E7%8D%BB%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
+  </si>
+  <si>
+    <t>历史文献办公室</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%9B%BD%E9%99%85%E4%BF%A1%E6%81%AF%E5%B1%80</t>
+  </si>
+  <si>
+    <t>美国国务院国际信息局</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Under_Secretary_of_State_for_Arms_Control_and_International_Security_Affairs</t>
+  </si>
+  <si>
+    <t>en-Under Secretary of State for Arms Control and International Security Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_International_Security_and_Nonproliferation</t>
+  </si>
+  <si>
+    <t>en-Bureau of International Security and Nonproliferation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Political-Military_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of Political-Military Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Verification,_Compliance,_and_Implementation</t>
+  </si>
+  <si>
+    <t>en-Bureau of Verification, Compliance, and Implementation</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Democracy,_Human_Rights,_and_Labor</t>
+  </si>
+  <si>
+    <t>en-Bureau of Democracy, Human Rights, and Labor</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Oceans_and_International_Environmental_and_Scientific_Affairs</t>
+  </si>
+  <si>
+    <t>en-Bureau of Oceans and International Environmental and Scientific Affairs</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bureau_of_Population,_Refugees,_and_Migration</t>
+  </si>
+  <si>
+    <t>en-Bureau of Population, Refugees, and Migration</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Office_to_Monitor_and_Combat_Trafficking_in_Persons</t>
+  </si>
+  <si>
+    <t>en-Office to Monitor and Combat Trafficking in Persons</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_Global_AIDS_Coordinator</t>
+  </si>
+  <si>
+    <t>en-United States Global AIDS Coordinator</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4</t>
+  </si>
+  <si>
+    <t>美国外交</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A7%90%E5%A4%96%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国驻外机构列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%A7%94%E5%91%98%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国家安全委员会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:USCabinet</t>
+  </si>
+  <si>
+    <t>Template talk-USCabinet</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B9%BC%E4%BB%BB%E9%A0%86%E5%BA%8F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国财政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8%E9%95%BF</t>
+  </si>
+  <si>
+    <t>美国财政部长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国国防部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国司法部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%B7</t>
+  </si>
+  <si>
+    <t>美国司法部长</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国内政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国农业部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国商务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8B%9E%E5%B7%A5%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国劳工部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国卫生及公共服务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国住房及城市发展部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国运输部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国能源部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国教育部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国退伍军人事务部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国国土安全部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国空军部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国陆军部</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_Department_of_Commerce_and_Labor</t>
+  </si>
+  <si>
+    <t>en-United States Department of Commerce and Labor</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E3%80%81%E6%95%99%E8%82%B2%E5%8F%8A%E7%A6%8F%E5%88%A9%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国卫生、教育及福利部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国海军部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国邮政部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国战争部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>行政机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
+  </si>
+  <si>
+    <t>美国总统</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8A%B3%E5%B7%A5%E9%83%A8</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国国会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
+  </si>
+  <si>
+    <t>司法机关</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国最高法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦上诉法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E6%96%B9%E6%B3%95%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国联邦地方法院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国会员国列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>属地</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Brunei%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Brunei–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Burma%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Burma–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cambodia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Cambodia–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>中美关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E7%BE%8E%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>港美关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>澳门－美国关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/East_Timor%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-East Timor–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Indonesia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Indonesia–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%97%A5%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美日关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Laos%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Laos–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Malaysia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Malaysia–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%BE%8E%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>蒙美关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%9C%9D%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美朝关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%8F%B2%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美菲关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>新加坡－美国关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E7%BE%8E%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>韩美关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%88%87%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>中华民国与美国关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%88%87%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>台湾与美国关系史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%BE%8E%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>泰美关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Vietnam_relations</t>
+  </si>
+  <si>
+    <t>en-United States–Vietnam relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Afghanistan%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Afghanistan–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bangladesh%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Bangladesh–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/India%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-India–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kazakhstan%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Kazakhstan–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kyrgyzstan%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Kyrgyzstan–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Maldives%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Maldives–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nepal%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Nepal–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pakistan%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Pakistan–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sri_Lanka%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Sri Lanka–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tajikistan%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Tajikistan–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Turkmenistan%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Turkmenistan–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Uzbekistan_relations</t>
+  </si>
+  <si>
+    <t>en-United States–Uzbekistan relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>亚美尼亚－美国关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Azerbaijan%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Azerbaijan–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bahrain%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Bahrain–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cyprus%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Cyprus–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Georgia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Georgia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Iran%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Iran–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Iraq%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Iraq–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%BB%A5%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美以关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jordan%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Jordan–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kuwait%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Kuwait–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lebanon%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Lebanon–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Oman%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Oman–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Palestine%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Palestine–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Qatar%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Qatar–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B2%99%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美沙关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Syria%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Syria–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%EF%BC%8D%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美国－土耳其关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_Arab_Emirates%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-United Arab Emirates–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Yemen_relations</t>
+  </si>
+  <si>
+    <t>en-United States–Yemen relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%AD%90%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美欧关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Austria%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Austria–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Belgium%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Belgium–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Czech_Republic%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Czech Republic–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Denmark%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Denmark–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Finland%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Finland–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B3%95%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美法关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%BE%8E%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>德美关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hungary%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Hungary–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%86%B0%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美冰关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ireland%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Ireland–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Liechtenstein%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Liechtenstein–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Luxembourg%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Luxembourg–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Monaco%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Monaco–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Netherlands%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Netherlands–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Norway%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Norway–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Poland%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Poland–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>瑞典－美国关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Switzerland%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Switzerland–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Slovakia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Slovakia–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>英美关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Albania%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Albania–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Andorra%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Andorra–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bosnia_and_Herzegovina%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Bosnia and Herzegovina–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bulgaria%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Bulgaria–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Croatia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Croatia–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%8E%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>希美关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Holy_See%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Holy See–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Italy%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Italy–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kosovo%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Kosovo–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Republic_of_Macedonia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Republic of Macedonia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Malta%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Malta–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Montenegro%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Montenegro–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Portugal%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Portugal–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Romania%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Romania–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/San_Marino%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-San Marino–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Serbia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Serbia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Slovenia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Slovenia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Spain%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Spain–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Belarus%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Belarus–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Estonia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Estonia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Latvia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Latvia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lithuania%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Lithuania–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Moldova%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Moldova–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%BF%84%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美俄关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ukraine%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Ukraine–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Algeria%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Algeria–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Angola%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Angola–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Benin%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Benin–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Botswana%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Botswana–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Burkina_Faso%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Burkina Faso–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Burundi%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Burundi–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cameroon%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Cameroon–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cape_Verde%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Cape Verde–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Central_African_Republic%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Central African Republic–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chad%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Chad–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Comoros%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Comoros–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Democratic_Republic_of_the_Congo%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Democratic Republic of the Congo–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Republic_of_the_Congo%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Republic of the Congo–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Djibouti%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Djibouti–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Egypt%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Egypt–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Equatorial_Guinea%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Equatorial Guinea–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Eritrea%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Eritrea–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ethiopia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Ethiopia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Gabon%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Gabon–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/The_Gambia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-The Gambia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ghana%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Ghana–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guinea%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Guinea–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guinea-Bissau%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Guinea-Bissau–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/C%C3%B4te_d%27Ivoire%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Côte d'Ivoire–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kenya%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Kenya–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lesotho%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Lesotho–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Liberia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Liberia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Libya%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Libya–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Madagascar%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Madagascar–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Malawi%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Malawi–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mali%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Mali–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mauritania%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Mauritania–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mauritius%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Mauritius–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Morocco%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Morocco–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mozambique%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Mozambique–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Namibia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Namibia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Niger%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Niger–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nigeria%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Nigeria–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rwanda%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Rwanda–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/S%C3%A3o_Tom%C3%A9_and_Pr%C3%ADncipe%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-São Tomé and Príncipe–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Senegal%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Senegal–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Seychelles%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Seychelles–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sierra_Leone%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Sierra Leone–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Somalia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Somalia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/South_Africa%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-South Africa–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/South_Sudan%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-South Sudan–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Sudan%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Sudan–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Swaziland%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Swaziland–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tanzania%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Tanzania–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Togo%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Togo–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tunisia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Tunisia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Uganda%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Uganda–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Zambia_relations</t>
+  </si>
+  <si>
+    <t>en-United States–Zambia relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Zimbabwe_relations</t>
+  </si>
+  <si>
+    <t>en-United States–Zimbabwe relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Belize%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Belize–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8A%A0%E5%85%B3%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>美加关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Costa_Rica%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Costa Rica–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/El_Salvador%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-El Salvador–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guatemala%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Guatemala–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Honduras%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Honduras–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mexico%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Mexico–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Nicaragua%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Nicaragua–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Panama%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Panama–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Antigua_and_Barbuda%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Antigua and Barbuda–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Aruba%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Aruba–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bahamas%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Bahamas–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Barbados%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Barbados–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bermuda%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Bermuda–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cayman_Islands%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Cayman Islands–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%8E%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>古美关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dominica%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Dominica–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>多明尼加－美国关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Grenada%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Grenada–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B5%B7%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美海关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Jamaica%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Jamaica–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Saint_Kitts_and_Nevis%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Saint Kitts and Nevis–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Saint_Lucia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Saint Lucia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Saint_Vincent_and_the_Grenadines%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Saint Vincent and the Grenadines–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Trinidad_and_Tobago%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Trinidad and Tobago–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Argentina%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Argentina–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bolivia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Bolivia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Brazil%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Brazil–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Chile%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Chile–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Colombia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Colombia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ecuador%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Ecuador–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Guyana%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Guyana–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Paraguay%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Paraguay–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Peru%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Peru–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Suriname%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Suriname–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Uruguay_relations</t>
+  </si>
+  <si>
+    <t>en-United States–Uruguay relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Venezuela_relations</t>
+  </si>
+  <si>
+    <t>en-United States–Venezuela relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>澳洲－美国关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Fiji%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Fiji–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kiribati%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Kiribati–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Marshall_Islands%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Marshall Islands–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Federated_States_of_Micronesia%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Federated States of Micronesia–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/New_Zealand%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-New Zealand–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Palau%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Palau–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Papua_New_Guinea%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Papua New Guinea–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Samoa%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Samoa–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Solomon_Islands%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Solomon Islands–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tonga%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Tonga–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Tuvalu%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Tuvalu–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Vanuatu_relations</t>
+  </si>
+  <si>
+    <t>en-United States–Vanuatu relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kingdom_of_Hawaii%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Kingdom of Hawaii–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Netherlands_Antilles%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Netherlands Antilles–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Republic_of_Texas%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Republic of Texas–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Russian_Empire%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Russian Empire–United States relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美苏关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Arab%E2%80%93American_relations</t>
+  </si>
+  <si>
+    <t>en-Arab–American relations</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>欧美关系</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Latin_America%E2%80%93United_States_relations</t>
+  </si>
+  <si>
+    <t>en-Latin America–United States relations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_and_the_United_Nations</t>
+  </si>
+  <si>
+    <t>en-United States and the United Nations</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/International_organization_membership_of_the_United_States</t>
+  </si>
+  <si>
+    <t>en-International organization membership of the United States</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Proclamation_of_Neutrality</t>
+  </si>
+  <si>
+    <t>en-Proclamation of Neutrality</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E7%BD%97%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>门罗主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Roosevelt_Corollary</t>
+  </si>
+  <si>
+    <t>en-Roosevelt Corollary</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Wilsonianism</t>
+  </si>
+  <si>
+    <t>en-Wilsonianism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9D%A6%E9%82%BB%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>睦邻政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%AD%AF%E9%96%80%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>杜鲁门主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%A3%AE%E8%B1%AA%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>艾森豪主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kennedy_Doctrine</t>
+  </si>
+  <si>
+    <t>en-Kennedy Doctrine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E6%A3%AE%E4%B8%BB%E7%BE%A9_(%E5%A4%96%E4%BA%A4)</t>
+  </si>
+  <si>
+    <t>詹森主义 (外交)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%A3%AE%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>尼克森主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>卡特主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>里根主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Clinton_Doctrine</t>
+  </si>
+  <si>
+    <t>en-Clinton Doctrine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Bush_Doctrine</t>
+  </si>
+  <si>
+    <t>en-Bush Doctrine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Obama_Doctrine</t>
+  </si>
+  <si>
+    <t>en-Obama Doctrine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Trump_Doctrine</t>
+  </si>
+  <si>
+    <t>en-Trump Doctrine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Lodge_Corollary</t>
+  </si>
+  <si>
+    <t>en-Lodge Corollary</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%89%BF%E8%AE%A4%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>不承认主义</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Kirkpatrick_Doctrine</t>
+  </si>
+  <si>
+    <t>en-Kirkpatrick Doctrine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Weinberger_Doctrine</t>
+  </si>
+  <si>
+    <t>en-Weinberger Doctrine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Powell_Doctrine</t>
+  </si>
+  <si>
+    <t>en-Powell Doctrine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Rumsfeld_Doctrine</t>
+  </si>
+  <si>
+    <t>en-Rumsfeld Doctrine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Wolfowitz_Doctrine</t>
+  </si>
+  <si>
+    <t>en-Wolfowitz Doctrine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Blowback_(intelligence)</t>
+  </si>
+  <si>
+    <t>en-Blowback (intelligence)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%B4%E5%A0%B5%E6%94%BF%E7%AD%96</t>
+  </si>
+  <si>
+    <t>围堵政策</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E8%AB%BE%E9%AA%A8%E7%89%8C%E7%90%86%E8%AB%96</t>
+  </si>
+  <si>
+    <t>多米诺骨牌理论</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Progressive_realism</t>
+  </si>
+  <si>
+    <t>en-Progressive realism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%9B%9E</t>
+  </si>
+  <si>
+    <t>推回</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E7%89%B9%E6%AE%8A%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>英美特殊关系</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%97%9C%E4%BF%82%E6%B3%95</t>
+  </si>
+  <si>
+    <t>台湾关系法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E9%A0%85%E4%BF%9D%E8%AD%89</t>
+  </si>
+  <si>
+    <t>六项保证</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%85%E8%A1%8C%E6%B3%95</t>
+  </si>
+  <si>
+    <t>台湾旅行法</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_diplomatic_missions_in_the_United_States</t>
+  </si>
+  <si>
+    <t>en-List of diplomatic missions in the United States</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E4%BA%A4%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国建交列表</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%C2%B7S%C2%B7%E6%9D%9C%E9%B2%81%E9%97%A8%E5%A4%A7%E6%A5%BC</t>
-  </si>
-  <si>
-    <t>哈里·S·杜鲁门大楼</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国国务院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
-  </si>
-  <si>
-    <t>美国国务卿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%C2%B7%E8%92%82%E5%8B%92%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>雷克斯·蒂勒森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B8%B8%E5%8A%A1%E5%89%AF%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
-  </si>
-  <si>
-    <t>美国常务副国务卿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美國聯邦政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4</t>
-  </si>
-  <si>
-    <t>外交</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E8%A1%8C%E6%94%BF%E9%83%A8%E9%97%A8</t>
-  </si>
-  <si>
-    <t>美国联邦行政部门</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国外交部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BA%A4%E9%83%A8</t>
-  </si>
-  <si>
-    <t>外交部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%85%8B%E6%96%AF%C2%B7%E6%8F%90%E5%8B%92%E6%A3%AE</t>
-  </si>
-  <si>
-    <t>雷克斯·提勒森</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BE%E8%B0%B7</t>
-  </si>
-  <si>
-    <t>雾谷</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
-  </si>
-  <si>
-    <t>美国内阁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国副总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E7%BB%A7%E4%BB%BB%E9%A1%BA%E5%BA%8F</t>
-  </si>
-  <si>
-    <t>美国总统继任顺序</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2%E8%AE%AE%E9%95%BF</t>
-  </si>
-  <si>
-    <t>美国众议院议长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
-  </si>
-  <si>
-    <t>參議院臨時議長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%93%B8%E5%B8%81%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国铸币局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%8B%99%E5%8D%BF</t>
-  </si>
-  <si>
-    <t>美國國務卿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%87%B1%E7%91%9E</t>
-  </si>
-  <si>
-    <t>約翰·凱瑞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%8B%89%E9%87%8C%C2%B7%E6%9F%AF%E6%9E%97%E9%A0%93</t>
-  </si>
-  <si>
-    <t>希拉里·柯林頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%A4%9A%E8%8E%89%E6%89%8E%C2%B7%E8%B5%96%E6%96%AF</t>
-  </si>
-  <si>
-    <t>康多莉扎·赖斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E5%9F%BA%E8%BE%9B%E6%A0%BC</t>
-  </si>
-  <si>
-    <t>亨利·基辛格</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%89%AF%E5%9B%BD%E5%8A%A1%E5%8D%BF</t>
-  </si>
-  <si>
-    <t>美国副国务卿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E6%AC%A1%E5%8D%BF</t>
-  </si>
-  <si>
-    <t>美国国务次卿</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Executive_Secretariat</t>
-  </si>
-  <si>
-    <t>en-Executive Secretariat</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Office_of_the_Coordinator_for_Reconstruction_and_Stabilization</t>
-  </si>
-  <si>
-    <t>en-Office of the Coordinator for Reconstruction and Stabilization</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Foreign_Affairs_Training_Center</t>
-  </si>
-  <si>
-    <t>en-National Foreign Affairs Training Center</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B3%87%E8%A8%8A%E8%A8%88%E5%8A%83%E5%B1%80</t>
-  </si>
-  <si>
-    <t>國際資訊計劃局</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Legal_Adviser_of_the_Department_of_State</t>
-  </si>
-  <si>
-    <t>en-Legal Adviser of the Department of State</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chief_of_Protocol_of_the_United_States</t>
-  </si>
-  <si>
-    <t>en-Chief of Protocol of the United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Intelligence_and_Research</t>
-  </si>
-  <si>
-    <t>en-Bureau of Intelligence and Research</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Legislative_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of Legislative Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Resource_Management</t>
-  </si>
-  <si>
-    <t>en-Bureau of Resource Management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Under_Secretary_of_State_for_Political_Affairs</t>
-  </si>
-  <si>
-    <t>en-Under Secretary of State for Political Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_East_Asian_and_Pacific_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of East Asian and Pacific Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_African_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of African Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Near_Eastern_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of Near Eastern Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_South_and_Central_Asian_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of South and Central Asian Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_European_and_Eurasian_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of European and Eurasian Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Western_Hemisphere_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of Western Hemisphere Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Under_Secretary_of_State_for_Management</t>
-  </si>
-  <si>
-    <t>en-Under Secretary of State for Management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Administration</t>
-  </si>
-  <si>
-    <t>en-Bureau of Administration</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Consular_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of Consular Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Office_of_Children%27s_Issues</t>
-  </si>
-  <si>
-    <t>en-Office of Children's Issues</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Diplomatic_Security</t>
-  </si>
-  <si>
-    <t>en-Bureau of Diplomatic Security</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Diplomatic_Security_Service</t>
-  </si>
-  <si>
-    <t>en-Diplomatic Security Service</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Office_of_Foreign_Missions</t>
-  </si>
-  <si>
-    <t>en-Office of Foreign Missions</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Information_Resource_Management</t>
-  </si>
-  <si>
-    <t>en-Bureau of Information Resource Management</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Overseas_Buildings_Operations</t>
-  </si>
-  <si>
-    <t>en-Bureau of Overseas Buildings Operations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Foreign_Service_Institute</t>
-  </si>
-  <si>
-    <t>en-Foreign Service Institute</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Under_Secretary_of_State_for_Economic_Growth,_Energy,_and_the_Environment</t>
-  </si>
-  <si>
-    <t>en-Under Secretary of State for Economic Growth, Energy, and the Environment</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Under_Secretary_of_State_for_Public_Diplomacy_and_Public_Affairs</t>
-  </si>
-  <si>
-    <t>en-Under Secretary of State for Public Diplomacy and Public Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Educational_and_Cultural_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of Educational and Cultural Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Internet_Access_and_Training_Program</t>
-  </si>
-  <si>
-    <t>en-Internet Access and Training Program</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Public_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of Public Affairs</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E6%96%87%E7%8D%BB%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
-  </si>
-  <si>
-    <t>歷史文獻辦公室</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%9B%BD%E9%99%85%E4%BF%A1%E6%81%AF%E5%B1%80</t>
-  </si>
-  <si>
-    <t>美国国务院国际信息局</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Under_Secretary_of_State_for_Arms_Control_and_International_Security_Affairs</t>
-  </si>
-  <si>
-    <t>en-Under Secretary of State for Arms Control and International Security Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_International_Security_and_Nonproliferation</t>
-  </si>
-  <si>
-    <t>en-Bureau of International Security and Nonproliferation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Political-Military_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of Political-Military Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Verification,_Compliance,_and_Implementation</t>
-  </si>
-  <si>
-    <t>en-Bureau of Verification, Compliance, and Implementation</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Democracy,_Human_Rights,_and_Labor</t>
-  </si>
-  <si>
-    <t>en-Bureau of Democracy, Human Rights, and Labor</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Oceans_and_International_Environmental_and_Scientific_Affairs</t>
-  </si>
-  <si>
-    <t>en-Bureau of Oceans and International Environmental and Scientific Affairs</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bureau_of_Population,_Refugees,_and_Migration</t>
-  </si>
-  <si>
-    <t>en-Bureau of Population, Refugees, and Migration</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Office_to_Monitor_and_Combat_Trafficking_in_Persons</t>
-  </si>
-  <si>
-    <t>en-Office to Monitor and Combat Trafficking in Persons</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_Global_AIDS_Coordinator</t>
-  </si>
-  <si>
-    <t>en-United States Global AIDS Coordinator</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4</t>
-  </si>
-  <si>
-    <t>美国外交</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A7%90%E5%A4%96%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國駐外機構列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%A7%94%E5%91%98%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国家安全委员会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:USCabinet</t>
-  </si>
-  <si>
-    <t>Template talk-USCabinet</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1%E7%B9%BC%E4%BB%BB%E9%A0%86%E5%BA%8F</t>
-  </si>
-  <si>
-    <t>美國總統繼任順序</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国财政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8%E9%95%BF</t>
-  </si>
-  <si>
-    <t>美国财政部长</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国国防部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国司法部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%B7</t>
-  </si>
-  <si>
-    <t>美國司法部長</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国内政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国农业部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国商务部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8B%9E%E5%B7%A5%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國勞工部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E5%8F%8A%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8A%A1%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国卫生及公共服务部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%8F%E6%88%BF%E5%8F%8A%E5%9F%8E%E5%B8%82%E7%99%BC%E5%B1%95%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國住房及城市發展部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%8B%E8%BC%B8%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國運輸部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%83%BD%E6%BA%90%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國能源部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國教育部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國退伍軍人事務部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國國土安全部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國空軍部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国陆军部</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_Department_of_Commerce_and_Labor</t>
-  </si>
-  <si>
-    <t>en-United States Department of Commerce and Labor</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%AB%E7%94%9F%E3%80%81%E6%95%99%E8%82%B2%E5%8F%8A%E7%A6%8F%E5%88%A9%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国卫生、教育及福利部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国海军部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國郵政部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國戰爭部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>行政机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
-  </si>
-  <si>
-    <t>美国总统</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8A%B3%E5%B7%A5%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美国劳工部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国国会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
-  </si>
-  <si>
-    <t>司法机关</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国最高法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦上诉法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E5%9C%B0%E6%96%B9%E6%B3%95%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国联邦地方法院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>聯合國會員國列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%9E%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>属地</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Brunei%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Brunei–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Burma%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Burma–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cambodia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Cambodia–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>中美关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E7%BE%8E%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>港美關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>澳門－美國關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/East_Timor%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-East Timor–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Indonesia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Indonesia–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%97%A5%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>美日關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Laos%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Laos–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Malaysia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Malaysia–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%BE%8E%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>蒙美關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%9C%9D%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>美朝關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%8F%B2%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>美菲關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>新加坡－美國關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E7%BE%8E%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>韩美关系</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%88%87%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>中華民國與美國關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%88%87%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>臺灣與美國關係史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E7%BE%8E%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>泰美關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Vietnam_relations</t>
-  </si>
-  <si>
-    <t>en-United States–Vietnam relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Afghanistan%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Afghanistan–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bangladesh%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Bangladesh–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/India%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-India–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kazakhstan%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Kazakhstan–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kyrgyzstan%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Kyrgyzstan–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Maldives%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Maldives–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nepal%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Nepal–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pakistan%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Pakistan–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sri_Lanka%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Sri Lanka–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tajikistan%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Tajikistan–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Turkmenistan%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Turkmenistan–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Uzbekistan_relations</t>
-  </si>
-  <si>
-    <t>en-United States–Uzbekistan relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>亞美尼亞－美國關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Azerbaijan%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Azerbaijan–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bahrain%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Bahrain–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cyprus%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Cyprus–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Georgia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Georgia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Iran%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Iran–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Iraq%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Iraq–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%BB%A5%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>美以關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jordan%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Jordan–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kuwait%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Kuwait–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lebanon%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Lebanon–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Oman%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Oman–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Palestine%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Palestine–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Qatar%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Qatar–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B2%99%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>美沙關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Syria%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Syria–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%EF%BC%8D%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美国－土耳其关系</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_Arab_Emirates%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-United Arab Emirates–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Yemen_relations</t>
-  </si>
-  <si>
-    <t>en-United States–Yemen relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%AD%90%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>美歐關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Austria%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Austria–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Belgium%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Belgium–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Czech_Republic%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Czech Republic–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Denmark%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Denmark–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Finland%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Finland–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B3%95%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>美法關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%BE%8E%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>德美關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Hungary%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Hungary–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%86%B0%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>美冰關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ireland%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Ireland–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Liechtenstein%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Liechtenstein–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Luxembourg%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Luxembourg–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Monaco%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Monaco–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Netherlands%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Netherlands–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Norway%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Norway–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Poland%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Poland–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>瑞典－美國關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Switzerland%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Switzerland–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Slovakia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Slovakia–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>英美關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Albania%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Albania–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Andorra%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Andorra–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bosnia_and_Herzegovina%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Bosnia and Herzegovina–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bulgaria%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Bulgaria–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Croatia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Croatia–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%8E%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>希美关系</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Holy_See%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Holy See–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Italy%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Italy–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kosovo%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Kosovo–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Republic_of_Macedonia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Republic of Macedonia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Malta%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Malta–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Montenegro%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Montenegro–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Portugal%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Portugal–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Romania%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Romania–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/San_Marino%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-San Marino–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Serbia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Serbia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Slovenia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Slovenia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Spain%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Spain–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Belarus%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Belarus–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Estonia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Estonia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Latvia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Latvia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lithuania%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Lithuania–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Moldova%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Moldova–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%BF%84%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>美俄關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ukraine%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Ukraine–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Algeria%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Algeria–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Angola%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Angola–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Benin%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Benin–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Botswana%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Botswana–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Burkina_Faso%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Burkina Faso–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Burundi%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Burundi–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cameroon%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Cameroon–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cape_Verde%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Cape Verde–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Central_African_Republic%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Central African Republic–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chad%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Chad–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Comoros%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Comoros–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Democratic_Republic_of_the_Congo%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Democratic Republic of the Congo–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Republic_of_the_Congo%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Republic of the Congo–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Djibouti%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Djibouti–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Egypt%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Egypt–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Equatorial_Guinea%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Equatorial Guinea–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Eritrea%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Eritrea–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ethiopia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Ethiopia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Gabon%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Gabon–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/The_Gambia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-The Gambia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ghana%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Ghana–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Guinea%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Guinea–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Guinea-Bissau%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Guinea-Bissau–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/C%C3%B4te_d%27Ivoire%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Côte d'Ivoire–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kenya%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Kenya–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lesotho%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Lesotho–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Liberia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Liberia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Libya%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Libya–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Madagascar%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Madagascar–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Malawi%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Malawi–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mali%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Mali–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mauritania%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Mauritania–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mauritius%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Mauritius–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Morocco%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Morocco–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mozambique%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Mozambique–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Namibia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Namibia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Niger%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Niger–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nigeria%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Nigeria–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rwanda%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Rwanda–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/S%C3%A3o_Tom%C3%A9_and_Pr%C3%ADncipe%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-São Tomé and Príncipe–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Senegal%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Senegal–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Seychelles%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Seychelles–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sierra_Leone%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Sierra Leone–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Somalia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Somalia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/South_Africa%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-South Africa–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/South_Sudan%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-South Sudan–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Sudan%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Sudan–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Swaziland%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Swaziland–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tanzania%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Tanzania–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Togo%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Togo–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tunisia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Tunisia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Uganda%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Uganda–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Zambia_relations</t>
-  </si>
-  <si>
-    <t>en-United States–Zambia relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Zimbabwe_relations</t>
-  </si>
-  <si>
-    <t>en-United States–Zimbabwe relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Belize%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Belize–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8A%A0%E5%85%B3%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>美加关系</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Costa_Rica%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Costa Rica–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/El_Salvador%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-El Salvador–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Guatemala%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Guatemala–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Honduras%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Honduras–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Mexico%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Mexico–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Nicaragua%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Nicaragua–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Panama%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Panama–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Antigua_and_Barbuda%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Antigua and Barbuda–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Aruba%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Aruba–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bahamas%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Bahamas–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Barbados%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Barbados–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bermuda%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Bermuda–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cayman_Islands%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Cayman Islands–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%8E%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>古美關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dominica%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Dominica–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>多明尼加－美國關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Grenada%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Grenada–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B5%B7%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>美海關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Jamaica%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Jamaica–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Saint_Kitts_and_Nevis%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Saint Kitts and Nevis–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Saint_Lucia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Saint Lucia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Saint_Vincent_and_the_Grenadines%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Saint Vincent and the Grenadines–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Trinidad_and_Tobago%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Trinidad and Tobago–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Argentina%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Argentina–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bolivia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Bolivia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Brazil%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Brazil–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Chile%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Chile–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Colombia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Colombia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ecuador%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Ecuador–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Guyana%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Guyana–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Paraguay%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Paraguay–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Peru%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Peru–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Suriname%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Suriname–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Uruguay_relations</t>
-  </si>
-  <si>
-    <t>en-United States–Uruguay relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Venezuela_relations</t>
-  </si>
-  <si>
-    <t>en-United States–Venezuela relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%EF%BC%8D%E7%BE%8E%E5%9C%8B%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>澳洲－美國關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Fiji%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Fiji–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kiribati%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Kiribati–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Marshall_Islands%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Marshall Islands–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Federated_States_of_Micronesia%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Federated States of Micronesia–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/New_Zealand%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-New Zealand–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Palau%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Palau–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Papua_New_Guinea%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Papua New Guinea–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Samoa%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Samoa–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Solomon_Islands%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Solomon Islands–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tonga%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Tonga–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Tuvalu%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Tuvalu–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States%E2%80%93Vanuatu_relations</t>
-  </si>
-  <si>
-    <t>en-United States–Vanuatu relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kingdom_of_Hawaii%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Kingdom of Hawaii–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Netherlands_Antilles%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Netherlands Antilles–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Republic_of_Texas%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Republic of Texas–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Russian_Empire%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Russian Empire–United States relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>美蘇關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Arab%E2%80%93American_relations</t>
-  </si>
-  <si>
-    <t>en-Arab–American relations</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%8E%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>歐美關係</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Latin_America%E2%80%93United_States_relations</t>
-  </si>
-  <si>
-    <t>en-Latin America–United States relations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_and_the_United_Nations</t>
-  </si>
-  <si>
-    <t>en-United States and the United Nations</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/International_organization_membership_of_the_United_States</t>
-  </si>
-  <si>
-    <t>en-International organization membership of the United States</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Proclamation_of_Neutrality</t>
-  </si>
-  <si>
-    <t>en-Proclamation of Neutrality</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E7%BD%97%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>门罗主义</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Roosevelt_Corollary</t>
-  </si>
-  <si>
-    <t>en-Roosevelt Corollary</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Wilsonianism</t>
-  </si>
-  <si>
-    <t>en-Wilsonianism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9D%A6%E9%82%BB%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>睦邻政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E9%AD%AF%E9%96%80%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>杜魯門主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%A3%AE%E8%B1%AA%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>艾森豪主義</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kennedy_Doctrine</t>
-  </si>
-  <si>
-    <t>en-Kennedy Doctrine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E6%A3%AE%E4%B8%BB%E7%BE%A9_(%E5%A4%96%E4%BA%A4)</t>
-  </si>
-  <si>
-    <t>詹森主義 (外交)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%A3%AE%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>尼克森主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>卡特主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>里根主义</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Clinton_Doctrine</t>
-  </si>
-  <si>
-    <t>en-Clinton Doctrine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Bush_Doctrine</t>
-  </si>
-  <si>
-    <t>en-Bush Doctrine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Obama_Doctrine</t>
-  </si>
-  <si>
-    <t>en-Obama Doctrine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Trump_Doctrine</t>
-  </si>
-  <si>
-    <t>en-Trump Doctrine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Lodge_Corollary</t>
-  </si>
-  <si>
-    <t>en-Lodge Corollary</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%89%BF%E8%AE%A4%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>不承认主义</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Kirkpatrick_Doctrine</t>
-  </si>
-  <si>
-    <t>en-Kirkpatrick Doctrine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Weinberger_Doctrine</t>
-  </si>
-  <si>
-    <t>en-Weinberger Doctrine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Powell_Doctrine</t>
-  </si>
-  <si>
-    <t>en-Powell Doctrine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Rumsfeld_Doctrine</t>
-  </si>
-  <si>
-    <t>en-Rumsfeld Doctrine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Wolfowitz_Doctrine</t>
-  </si>
-  <si>
-    <t>en-Wolfowitz Doctrine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Blowback_(intelligence)</t>
-  </si>
-  <si>
-    <t>en-Blowback (intelligence)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%B4%E5%A0%B5%E6%94%BF%E7%AD%96</t>
-  </si>
-  <si>
-    <t>围堵政策</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E8%AB%BE%E9%AA%A8%E7%89%8C%E7%90%86%E8%AB%96</t>
-  </si>
-  <si>
-    <t>多米諾骨牌理論</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Progressive_realism</t>
-  </si>
-  <si>
-    <t>en-Progressive realism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%9B%9E</t>
-  </si>
-  <si>
-    <t>推回</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E7%89%B9%E6%AE%8A%E9%97%9C%E4%BF%82</t>
-  </si>
-  <si>
-    <t>英美特殊關係</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%97%9C%E4%BF%82%E6%B3%95</t>
-  </si>
-  <si>
-    <t>臺灣關係法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E9%A0%85%E4%BF%9D%E8%AD%89</t>
-  </si>
-  <si>
-    <t>六項保證</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%97%85%E8%A1%8C%E6%B3%95</t>
-  </si>
-  <si>
-    <t>台灣旅行法</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_diplomatic_missions_in_the_United_States</t>
-  </si>
-  <si>
-    <t>en-List of diplomatic missions in the United States</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%BB%BA%E4%BA%A4%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国建交列表</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2502,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I370"/>
+  <dimension ref="A1:I372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3104,7 +3104,7 @@
         <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3130,10 +3130,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3159,10 +3159,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3188,10 +3188,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3217,10 +3217,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3275,10 +3275,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -3304,10 +3304,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3333,10 +3333,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -3362,10 +3362,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -3391,10 +3391,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -3420,10 +3420,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3449,10 +3449,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3478,10 +3478,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3507,10 +3507,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -3536,10 +3536,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -3565,10 +3565,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -3594,10 +3594,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3623,10 +3623,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3652,10 +3652,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3681,10 +3681,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3710,10 +3710,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3739,10 +3739,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3768,10 +3768,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -3797,10 +3797,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3826,10 +3826,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3855,10 +3855,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3884,10 +3884,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -3913,10 +3913,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3942,10 +3942,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3971,10 +3971,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -4000,10 +4000,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -4029,10 +4029,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -4058,10 +4058,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -4087,10 +4087,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -4116,10 +4116,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -4145,10 +4145,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -4174,10 +4174,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -4203,10 +4203,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -4232,10 +4232,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4261,10 +4261,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4290,10 +4290,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4319,10 +4319,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -4348,10 +4348,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -4377,10 +4377,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4406,10 +4406,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4435,10 +4435,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4464,10 +4464,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4493,10 +4493,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4522,10 +4522,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4551,10 +4551,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -4609,10 +4609,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" t="s">
         <v>49</v>
-      </c>
-      <c r="F73" t="s">
-        <v>50</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4638,10 +4638,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4667,10 +4667,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4696,10 +4696,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>142</v>
+      </c>
+      <c r="F76" t="s">
         <v>143</v>
-      </c>
-      <c r="F76" t="s">
-        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>6</v>
@@ -4783,10 +4783,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4812,10 +4812,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4841,10 +4841,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>15</v>
@@ -4870,10 +4870,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4899,10 +4899,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4928,10 +4928,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4957,10 +4957,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4986,10 +4986,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5015,10 +5015,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -5044,10 +5044,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5073,10 +5073,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -5102,10 +5102,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5131,10 +5131,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5160,10 +5160,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -5189,10 +5189,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -5218,10 +5218,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5247,10 +5247,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5276,10 +5276,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5305,10 +5305,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5334,10 +5334,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5363,10 +5363,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5392,10 +5392,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5421,10 +5421,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5450,10 +5450,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5479,10 +5479,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>8</v>
@@ -5508,10 +5508,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>9</v>
@@ -5537,10 +5537,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F105" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5566,10 +5566,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F106" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5595,10 +5595,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5624,10 +5624,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5653,10 +5653,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F109" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5682,10 +5682,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F110" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5711,10 +5711,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F111" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -5740,10 +5740,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F112" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5769,10 +5769,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F113" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -5798,10 +5798,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F114" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -5827,10 +5827,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F115" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -5856,10 +5856,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F116" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5885,10 +5885,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5914,10 +5914,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F118" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5943,10 +5943,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F119" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -5972,10 +5972,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F120" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6001,10 +6001,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F121" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6059,10 +6059,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F123" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6088,10 +6088,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>136</v>
+      </c>
+      <c r="F124" t="s">
         <v>137</v>
-      </c>
-      <c r="F124" t="s">
-        <v>138</v>
       </c>
       <c r="G124" t="n">
         <v>6</v>
@@ -6117,10 +6117,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F125" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6146,10 +6146,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F126" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6175,10 +6175,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F127" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6204,10 +6204,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F128" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6233,10 +6233,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F129" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6262,10 +6262,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F130" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6291,10 +6291,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F131" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6320,10 +6320,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F132" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6349,10 +6349,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F133" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6378,10 +6378,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F134" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6407,10 +6407,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F135" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6436,10 +6436,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F136" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6465,10 +6465,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6494,10 +6494,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F138" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6523,10 +6523,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F139" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6552,10 +6552,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F140" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6581,10 +6581,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F141" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6610,10 +6610,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F142" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6639,10 +6639,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F143" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6668,10 +6668,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F144" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6697,10 +6697,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F145" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6726,10 +6726,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F146" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6755,10 +6755,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F147" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6784,10 +6784,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F148" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6813,10 +6813,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F149" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6842,10 +6842,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F150" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6871,10 +6871,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F151" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6900,10 +6900,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F152" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6929,10 +6929,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F153" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6958,10 +6958,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F154" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6987,10 +6987,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F155" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7016,10 +7016,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F156" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7045,10 +7045,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F157" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7074,10 +7074,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F158" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7103,10 +7103,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F159" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7132,10 +7132,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7161,10 +7161,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F161" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7190,10 +7190,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F162" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7219,10 +7219,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F163" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7248,10 +7248,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7277,10 +7277,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F165" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7306,10 +7306,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F166" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7335,10 +7335,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F167" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7364,10 +7364,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F168" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7393,10 +7393,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F169" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7422,10 +7422,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F170" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7451,10 +7451,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F171" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7480,10 +7480,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F172" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7509,10 +7509,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F173" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7538,10 +7538,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F174" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7567,10 +7567,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F175" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7596,10 +7596,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F176" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7625,10 +7625,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F177" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7654,10 +7654,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F178" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7683,10 +7683,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F179" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7712,10 +7712,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F180" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7741,10 +7741,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F181" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7770,10 +7770,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F182" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7799,10 +7799,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F183" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7828,10 +7828,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F184" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7857,10 +7857,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F185" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7886,10 +7886,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F186" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7915,10 +7915,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F187" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7944,10 +7944,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F188" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7973,10 +7973,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F189" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8002,10 +8002,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F190" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8031,10 +8031,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F191" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8060,10 +8060,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F192" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8089,10 +8089,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F193" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8118,10 +8118,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F194" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8147,10 +8147,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F195" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8176,10 +8176,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F196" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8205,10 +8205,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F197" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8234,10 +8234,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F198" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8263,10 +8263,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F199" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8292,10 +8292,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F200" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8321,10 +8321,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F201" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8350,10 +8350,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F202" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8379,10 +8379,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8408,10 +8408,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8437,10 +8437,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8466,10 +8466,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8495,10 +8495,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8524,10 +8524,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F208" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8553,10 +8553,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F209" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8582,10 +8582,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F210" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8611,10 +8611,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F211" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8640,10 +8640,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F212" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8669,10 +8669,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F213" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8698,10 +8698,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F214" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8727,10 +8727,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F215" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8756,10 +8756,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F216" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8785,10 +8785,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F217" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8814,10 +8814,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F218" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8843,10 +8843,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F219" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8872,10 +8872,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F220" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -8901,10 +8901,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F221" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8930,10 +8930,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F222" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8959,10 +8959,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8988,10 +8988,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F224" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9017,10 +9017,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F225" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9046,10 +9046,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F226" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9075,10 +9075,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F227" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9104,10 +9104,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F228" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9133,10 +9133,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F229" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9162,10 +9162,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F230" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9191,10 +9191,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F231" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9220,10 +9220,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F232" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9249,10 +9249,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F233" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9278,10 +9278,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F234" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9307,10 +9307,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F235" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9336,10 +9336,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F236" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9365,10 +9365,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F237" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9394,10 +9394,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F238" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9423,10 +9423,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F239" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9452,10 +9452,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F240" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9481,10 +9481,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F241" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9510,10 +9510,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F242" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9539,10 +9539,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F243" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -9568,10 +9568,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F244" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9597,10 +9597,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F245" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9626,10 +9626,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F246" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9655,10 +9655,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F247" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9684,10 +9684,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F248" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9713,10 +9713,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9742,10 +9742,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9771,10 +9771,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9800,10 +9800,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9829,10 +9829,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F253" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9858,10 +9858,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F254" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9887,10 +9887,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F255" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9916,10 +9916,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F256" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9945,10 +9945,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F257" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9974,10 +9974,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F258" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10003,10 +10003,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F259" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10032,10 +10032,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F260" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10061,10 +10061,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10090,10 +10090,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10119,10 +10119,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F263" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10148,10 +10148,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F264" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10177,10 +10177,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F265" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10206,10 +10206,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10235,10 +10235,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F267" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10264,10 +10264,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F268" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10293,10 +10293,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10322,10 +10322,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10351,10 +10351,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10380,10 +10380,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10409,10 +10409,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10438,10 +10438,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10467,10 +10467,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10496,10 +10496,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10525,10 +10525,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10554,10 +10554,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10583,10 +10583,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10612,10 +10612,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10641,10 +10641,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10670,10 +10670,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10699,10 +10699,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10728,10 +10728,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10757,10 +10757,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10786,10 +10786,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10815,10 +10815,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10844,10 +10844,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10873,10 +10873,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10902,10 +10902,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10931,10 +10931,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -10960,10 +10960,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10989,10 +10989,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G293" t="n">
         <v>2</v>
@@ -11018,10 +11018,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11047,10 +11047,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G295" t="n">
         <v>2</v>
@@ -11076,10 +11076,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11105,10 +11105,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11134,10 +11134,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11163,10 +11163,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11192,10 +11192,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11221,10 +11221,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11250,10 +11250,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11279,10 +11279,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F303" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11308,10 +11308,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F304" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11337,10 +11337,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F305" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11366,10 +11366,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F306" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11395,10 +11395,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11424,10 +11424,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11453,10 +11453,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11482,10 +11482,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11511,10 +11511,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11540,10 +11540,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11569,10 +11569,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F313" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11598,10 +11598,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F314" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11627,10 +11627,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F315" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11656,10 +11656,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11685,10 +11685,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F317" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11714,10 +11714,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F318" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11743,10 +11743,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F319" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11772,10 +11772,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F320" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11801,10 +11801,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11830,10 +11830,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="F322" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11859,10 +11859,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F323" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11888,10 +11888,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F324" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11917,10 +11917,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F325" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11946,10 +11946,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F326" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11975,10 +11975,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F327" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12004,10 +12004,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12033,10 +12033,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12062,10 +12062,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12091,10 +12091,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12120,10 +12120,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12149,10 +12149,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12178,10 +12178,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F334" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12207,10 +12207,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F335" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12236,10 +12236,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F336" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12265,10 +12265,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F337" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12294,10 +12294,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F338" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12323,10 +12323,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F339" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12352,10 +12352,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F340" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12381,10 +12381,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F341" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12410,10 +12410,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F342" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12439,10 +12439,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="F343" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12468,10 +12468,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F344" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12497,10 +12497,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12526,10 +12526,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12555,10 +12555,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F347" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12584,10 +12584,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F348" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12613,10 +12613,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="F349" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12642,10 +12642,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="F350" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12671,10 +12671,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F351" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12700,10 +12700,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F352" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12729,10 +12729,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="F353" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12758,10 +12758,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F354" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12787,10 +12787,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F355" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12816,10 +12816,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="F356" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12845,10 +12845,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F357" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12874,10 +12874,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F358" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12903,10 +12903,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F359" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12932,10 +12932,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F360" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12961,10 +12961,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F361" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12990,10 +12990,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F362" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13019,10 +13019,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F363" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13048,10 +13048,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F364" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13077,10 +13077,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F365" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13106,10 +13106,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F366" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13135,10 +13135,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F367" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13164,10 +13164,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>138</v>
+      </c>
+      <c r="F368" t="s">
         <v>139</v>
-      </c>
-      <c r="F368" t="s">
-        <v>140</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13193,10 +13193,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F369" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13222,18 +13222,76 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>708</v>
+      </c>
+      <c r="F370" t="s">
+        <v>709</v>
+      </c>
+      <c r="G370" t="n">
+        <v>1</v>
+      </c>
+      <c r="H370" t="s">
+        <v>4</v>
+      </c>
+      <c r="I370" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1</v>
+      </c>
+      <c r="D371" t="n">
+        <v>370</v>
+      </c>
+      <c r="E371" t="s">
+        <v>710</v>
+      </c>
+      <c r="F371" t="s">
         <v>711</v>
       </c>
-      <c r="F370" t="s">
+      <c r="G371" t="n">
+        <v>2</v>
+      </c>
+      <c r="H371" t="s">
+        <v>4</v>
+      </c>
+      <c r="I371" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1</v>
+      </c>
+      <c r="D372" t="n">
+        <v>371</v>
+      </c>
+      <c r="E372" t="s">
+        <v>710</v>
+      </c>
+      <c r="F372" t="s">
         <v>712</v>
       </c>
-      <c r="G370" t="n">
-        <v>1</v>
-      </c>
-      <c r="H370" t="s">
-        <v>4</v>
-      </c>
-      <c r="I370" t="n">
+      <c r="G372" t="n">
+        <v>1</v>
+      </c>
+      <c r="H372" t="s">
+        <v>4</v>
+      </c>
+      <c r="I372" t="n">
         <v>3</v>
       </c>
     </row>
